--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3252,28 +3252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.1814959278727</v>
+        <v>948.9669098640622</v>
       </c>
       <c r="AB2" t="n">
-        <v>1131.786215400593</v>
+        <v>1298.418391541357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1023.77012747469</v>
+        <v>1174.499162594307</v>
       </c>
       <c r="AD2" t="n">
-        <v>827181.4959278727</v>
+        <v>948966.9098640622</v>
       </c>
       <c r="AE2" t="n">
-        <v>1131786.215400593</v>
+        <v>1298418.391541357</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89339789591984e-07</v>
+        <v>1.460485271291699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.25130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1023770.12747469</v>
+        <v>1174499.162594307</v>
       </c>
     </row>
     <row r="3">
@@ -3358,28 +3358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>590.4657780318076</v>
+        <v>675.835071836106</v>
       </c>
       <c r="AB3" t="n">
-        <v>807.9013270147645</v>
+        <v>924.707361025241</v>
       </c>
       <c r="AC3" t="n">
-        <v>730.7963582611086</v>
+        <v>836.4545883239236</v>
       </c>
       <c r="AD3" t="n">
-        <v>590465.7780318076</v>
+        <v>675835.0718361059</v>
       </c>
       <c r="AE3" t="n">
-        <v>807901.3270147645</v>
+        <v>924707.361025241</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01211114576982e-06</v>
+        <v>1.872670604976177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.01302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>730796.3582611086</v>
+        <v>836454.5883239236</v>
       </c>
     </row>
     <row r="4">
@@ -3464,28 +3464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.4837519684893</v>
+        <v>599.8529562642365</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.9393668645212</v>
+        <v>820.7452784054493</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.7563816760771</v>
+        <v>742.4145009576655</v>
       </c>
       <c r="AD4" t="n">
-        <v>514483.7519684893</v>
+        <v>599852.9562642365</v>
       </c>
       <c r="AE4" t="n">
-        <v>703939.3668645212</v>
+        <v>820745.2784054494</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.100505438083889e-06</v>
+        <v>2.036223188658398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>636756.3816760771</v>
+        <v>742414.5009576655</v>
       </c>
     </row>
     <row r="5">
@@ -3570,28 +3570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.4472059525836</v>
+        <v>572.6458180477387</v>
       </c>
       <c r="AB5" t="n">
-        <v>666.9467718373302</v>
+        <v>783.5192716034113</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.294307998848</v>
+        <v>708.7412919977852</v>
       </c>
       <c r="AD5" t="n">
-        <v>487447.2059525836</v>
+        <v>572645.8180477386</v>
       </c>
       <c r="AE5" t="n">
-        <v>666946.7718373302</v>
+        <v>783519.2716034113</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.149172483099688e-06</v>
+        <v>2.126269963672243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.22265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>603294.307998848</v>
+        <v>708741.2919977852</v>
       </c>
     </row>
     <row r="6">
@@ -3676,28 +3676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>459.9424234092267</v>
+        <v>545.2262868504024</v>
       </c>
       <c r="AB6" t="n">
-        <v>629.3135149361427</v>
+        <v>746.002659354873</v>
       </c>
       <c r="AC6" t="n">
-        <v>569.2527163177019</v>
+        <v>674.8052125673515</v>
       </c>
       <c r="AD6" t="n">
-        <v>459942.4234092267</v>
+        <v>545226.2868504024</v>
       </c>
       <c r="AE6" t="n">
-        <v>629313.5149361427</v>
+        <v>746002.659354873</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.174404653681021e-06</v>
+        <v>2.172956085394049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>569252.716317702</v>
+        <v>674805.2125673515</v>
       </c>
     </row>
     <row r="7">
@@ -3782,28 +3782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>445.1815260218244</v>
+        <v>530.465389463</v>
       </c>
       <c r="AB7" t="n">
-        <v>609.117003925866</v>
+        <v>725.8061483445964</v>
       </c>
       <c r="AC7" t="n">
-        <v>550.983731972265</v>
+        <v>656.5362282219145</v>
       </c>
       <c r="AD7" t="n">
-        <v>445181.5260218245</v>
+        <v>530465.389463</v>
       </c>
       <c r="AE7" t="n">
-        <v>609117.003925866</v>
+        <v>725806.1483445964</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.196182281019026e-06</v>
+        <v>2.213250397666431e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.70182291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>550983.7319722649</v>
+        <v>656536.2282219145</v>
       </c>
     </row>
     <row r="8">
@@ -3888,28 +3888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>432.802618313914</v>
+        <v>506.0615628505547</v>
       </c>
       <c r="AB8" t="n">
-        <v>592.179636281038</v>
+        <v>692.4157561526026</v>
       </c>
       <c r="AC8" t="n">
-        <v>535.6628429237145</v>
+        <v>626.3325681970149</v>
       </c>
       <c r="AD8" t="n">
-        <v>432802.618313914</v>
+        <v>506061.5628505547</v>
       </c>
       <c r="AE8" t="n">
-        <v>592179.6362810381</v>
+        <v>692415.7561526026</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.211611018071997e-06</v>
+        <v>2.241797600680413e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>535662.8429237145</v>
+        <v>626332.5681970149</v>
       </c>
     </row>
     <row r="9">
@@ -3994,28 +3994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>421.8149275516247</v>
+        <v>494.9032798876732</v>
       </c>
       <c r="AB9" t="n">
-        <v>577.1457930373687</v>
+        <v>677.1485011340864</v>
       </c>
       <c r="AC9" t="n">
-        <v>522.0638085790896</v>
+        <v>612.5223985697387</v>
       </c>
       <c r="AD9" t="n">
-        <v>421814.9275516247</v>
+        <v>494903.2798876732</v>
       </c>
       <c r="AE9" t="n">
-        <v>577145.7930373687</v>
+        <v>677148.5011340864</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.222394794953195e-06</v>
+        <v>2.26175041125902e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.43489583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>522063.8085790896</v>
+        <v>612522.3985697387</v>
       </c>
     </row>
     <row r="10">
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>412.3596732467204</v>
+        <v>485.448025582769</v>
       </c>
       <c r="AB10" t="n">
-        <v>564.208696961019</v>
+        <v>664.2114050577367</v>
       </c>
       <c r="AC10" t="n">
-        <v>510.3614107949382</v>
+        <v>600.8200007855874</v>
       </c>
       <c r="AD10" t="n">
-        <v>412359.6732467205</v>
+        <v>485448.0255827691</v>
       </c>
       <c r="AE10" t="n">
-        <v>564208.696961019</v>
+        <v>664211.4050577367</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.228230172053411e-06</v>
+        <v>2.272547386680344e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>510361.4107949382</v>
+        <v>600820.0007855874</v>
       </c>
     </row>
     <row r="11">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>413.3007949297179</v>
+        <v>486.3891472657664</v>
       </c>
       <c r="AB11" t="n">
-        <v>565.4963811670543</v>
+        <v>665.499089263772</v>
       </c>
       <c r="AC11" t="n">
-        <v>511.5262002276257</v>
+        <v>601.9847902182748</v>
       </c>
       <c r="AD11" t="n">
-        <v>413300.7949297179</v>
+        <v>486389.1472657664</v>
       </c>
       <c r="AE11" t="n">
-        <v>565496.3811670543</v>
+        <v>665499.089263772</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.228230172053411e-06</v>
+        <v>2.272547386680344e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>511526.2002276257</v>
+        <v>601984.7902182748</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.1417195806636</v>
+        <v>763.8445365745266</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.4985358937337</v>
+        <v>1045.125793383905</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.5562194856677</v>
+        <v>945.380454506608</v>
       </c>
       <c r="AD2" t="n">
-        <v>658141.7195806636</v>
+        <v>763844.5365745266</v>
       </c>
       <c r="AE2" t="n">
-        <v>900498.5358937337</v>
+        <v>1045125.793383905</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.116497435525225e-07</v>
+        <v>1.737745108302737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.24609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>814556.2194856678</v>
+        <v>945380.454506608</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.9014941850085</v>
+        <v>578.1622277680086</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.5143019738073</v>
+        <v>791.0670667495054</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.7578492942301</v>
+        <v>715.5687361685333</v>
       </c>
       <c r="AD3" t="n">
-        <v>495901.4941850085</v>
+        <v>578162.2277680086</v>
       </c>
       <c r="AE3" t="n">
-        <v>678514.3019738073</v>
+        <v>791067.0667495055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.117160297581804e-06</v>
+        <v>2.129479941219294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.06901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>613757.8492942301</v>
+        <v>715568.7361685333</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.9756327201796</v>
+        <v>517.5579950250341</v>
       </c>
       <c r="AB4" t="n">
-        <v>611.5717798609569</v>
+        <v>708.1456818405176</v>
       </c>
       <c r="AC4" t="n">
-        <v>553.2042275374105</v>
+        <v>640.5612518543645</v>
       </c>
       <c r="AD4" t="n">
-        <v>446975.6327201796</v>
+        <v>517557.9950250341</v>
       </c>
       <c r="AE4" t="n">
-        <v>611571.7798609569</v>
+        <v>708145.6818405176</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19237653254846e-06</v>
+        <v>2.272853693367699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.18359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>553204.2275374105</v>
+        <v>640561.2518543645</v>
       </c>
     </row>
     <row r="5">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.3171114033065</v>
+        <v>496.5777554777554</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.8869502029365</v>
+        <v>679.4395925090864</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.7840553063993</v>
+        <v>614.5948313994757</v>
       </c>
       <c r="AD5" t="n">
-        <v>414317.1114033065</v>
+        <v>496577.7554777554</v>
       </c>
       <c r="AE5" t="n">
-        <v>566886.9502029365</v>
+        <v>679439.5925090865</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231445511096149e-06</v>
+        <v>2.347325196088764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>512784.0553063992</v>
+        <v>614594.8313994757</v>
       </c>
     </row>
     <row r="6">
@@ -4927,28 +4927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>395.5470161147469</v>
+        <v>466.0440375650298</v>
       </c>
       <c r="AB6" t="n">
-        <v>541.2048777509681</v>
+        <v>637.6620126083309</v>
       </c>
       <c r="AC6" t="n">
-        <v>489.5530438042315</v>
+        <v>576.8044450892468</v>
       </c>
       <c r="AD6" t="n">
-        <v>395547.0161147469</v>
+        <v>466044.0375650298</v>
       </c>
       <c r="AE6" t="n">
-        <v>541204.8777509681</v>
+        <v>637662.0126083309</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.260855904094347e-06</v>
+        <v>2.403385944119826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.46744791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>489553.0438042316</v>
+        <v>576804.4450892467</v>
       </c>
     </row>
     <row r="7">
@@ -5033,28 +5033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.030311866938</v>
+        <v>451.5273333172209</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.3424825673239</v>
+        <v>617.7996174246867</v>
       </c>
       <c r="AC7" t="n">
-        <v>471.5862877398677</v>
+        <v>558.8376890248828</v>
       </c>
       <c r="AD7" t="n">
-        <v>381030.311866938</v>
+        <v>451527.3333172209</v>
       </c>
       <c r="AE7" t="n">
-        <v>521342.482567324</v>
+        <v>617799.6174246868</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.278482822722167e-06</v>
+        <v>2.436985571429083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.29817708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>471586.2877398677</v>
+        <v>558837.6890248829</v>
       </c>
     </row>
     <row r="8">
@@ -5139,28 +5139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>377.2675645434721</v>
+        <v>447.764585993755</v>
       </c>
       <c r="AB8" t="n">
-        <v>516.1941256786619</v>
+        <v>612.6512605360246</v>
       </c>
       <c r="AC8" t="n">
-        <v>466.9292828068951</v>
+        <v>554.1806840919103</v>
       </c>
       <c r="AD8" t="n">
-        <v>377267.5645434721</v>
+        <v>447764.585993755</v>
       </c>
       <c r="AE8" t="n">
-        <v>516194.1256786619</v>
+        <v>612651.2605360246</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.28154942363413e-06</v>
+        <v>2.442830986043159e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>466929.2828068951</v>
+        <v>554180.6840919103</v>
       </c>
     </row>
   </sheetData>
@@ -5436,28 +5436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.4874884344474</v>
+        <v>423.7315858727837</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.5524440927192</v>
+        <v>579.7682495093759</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.7846318845917</v>
+        <v>524.4359814860491</v>
       </c>
       <c r="AD2" t="n">
-        <v>350487.4884344474</v>
+        <v>423731.5858727837</v>
       </c>
       <c r="AE2" t="n">
-        <v>479552.4440927192</v>
+        <v>579768.2495093759</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292608389639403e-06</v>
+        <v>2.752917590523499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>433784.6318845917</v>
+        <v>524435.981486049</v>
       </c>
     </row>
     <row r="3">
@@ -5542,28 +5542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.8670997486094</v>
+        <v>358.5625033497342</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.8184186112736</v>
+        <v>490.6010357443299</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.1831169052318</v>
+        <v>443.7787614557686</v>
       </c>
       <c r="AD3" t="n">
-        <v>295867.0997486094</v>
+        <v>358562.5033497342</v>
       </c>
       <c r="AE3" t="n">
-        <v>404818.4186112736</v>
+        <v>490601.0357443299</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.41649660774842e-06</v>
+        <v>3.016767073185504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>366183.1169052318</v>
+        <v>443778.7614557686</v>
       </c>
     </row>
     <row r="4">
@@ -5648,28 +5648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.6275773999065</v>
+        <v>359.3229810010312</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.8589376836844</v>
+        <v>491.6415548167407</v>
       </c>
       <c r="AC4" t="n">
-        <v>367.1243302977494</v>
+        <v>444.7199748482863</v>
       </c>
       <c r="AD4" t="n">
-        <v>296627.5773999065</v>
+        <v>359322.9810010312</v>
       </c>
       <c r="AE4" t="n">
-        <v>405858.9376836844</v>
+        <v>491641.5548167407</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41894850593196e-06</v>
+        <v>3.021988974647497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>367124.3302977494</v>
+        <v>444719.9748482862</v>
       </c>
     </row>
   </sheetData>
@@ -5945,28 +5945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.4865594075343</v>
+        <v>532.1755869225655</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.166119944431</v>
+        <v>728.1461159573608</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.1235990234441</v>
+        <v>658.6528726098819</v>
       </c>
       <c r="AD2" t="n">
-        <v>444486.5594075343</v>
+        <v>532175.5869225655</v>
       </c>
       <c r="AE2" t="n">
-        <v>608166.119944431</v>
+        <v>728146.1159573608</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.140657635812392e-06</v>
+        <v>2.315929362159649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>550123.5990234441</v>
+        <v>658652.8726098819</v>
       </c>
     </row>
     <row r="3">
@@ -6051,28 +6051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.8957942637593</v>
+        <v>432.6130257325901</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.9523267259975</v>
+        <v>591.9202273470361</v>
       </c>
       <c r="AC3" t="n">
-        <v>440.4782801051505</v>
+        <v>535.4281916142911</v>
       </c>
       <c r="AD3" t="n">
-        <v>355895.7942637593</v>
+        <v>432613.0257325901</v>
       </c>
       <c r="AE3" t="n">
-        <v>486952.3267259975</v>
+        <v>591920.2273470361</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306528825508965e-06</v>
+        <v>2.652705224165825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.84505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>440478.2801051505</v>
+        <v>535428.1916142912</v>
       </c>
     </row>
     <row r="4">
@@ -6157,28 +6157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.4129332986051</v>
+        <v>394.1584582297866</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.3490638952186</v>
+        <v>539.3049915939149</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.4638199024304</v>
+        <v>487.8344801155005</v>
       </c>
       <c r="AD4" t="n">
-        <v>328412.9332986051</v>
+        <v>394158.4582297866</v>
       </c>
       <c r="AE4" t="n">
-        <v>449349.0638952187</v>
+        <v>539304.9915939149</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363907111175565e-06</v>
+        <v>2.769202981559104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>406463.8199024304</v>
+        <v>487834.4801155005</v>
       </c>
     </row>
     <row r="5">
@@ -6263,28 +6263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.1464912514693</v>
+        <v>391.8920161826509</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.2480178979613</v>
+        <v>536.2039455966576</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.6587333828058</v>
+        <v>485.029393595876</v>
       </c>
       <c r="AD5" t="n">
-        <v>326146.4912514694</v>
+        <v>391892.0161826509</v>
       </c>
       <c r="AE5" t="n">
-        <v>446248.0178979613</v>
+        <v>536203.9455966576</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368263324238303e-06</v>
+        <v>2.778047600157247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>403658.7333828058</v>
+        <v>485029.393595876</v>
       </c>
     </row>
   </sheetData>
@@ -6560,28 +6560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.3243638511265</v>
+        <v>350.5644410755094</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.5521616592237</v>
+        <v>479.6577340911309</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.9464816693065</v>
+        <v>433.8798731533305</v>
       </c>
       <c r="AD2" t="n">
-        <v>280324.3638511265</v>
+        <v>350564.4410755094</v>
       </c>
       <c r="AE2" t="n">
-        <v>383552.1616592237</v>
+        <v>479657.7340911309</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.42478218102557e-06</v>
+        <v>3.172711622930658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>346946.4816693065</v>
+        <v>433879.8731533305</v>
       </c>
     </row>
     <row r="3">
@@ -6666,28 +6666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.1509791367444</v>
+        <v>343.3910563611272</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.7372202256077</v>
+        <v>469.8427926575148</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.0682644707579</v>
+        <v>425.001655954782</v>
       </c>
       <c r="AD3" t="n">
-        <v>273150.9791367444</v>
+        <v>343391.0563611272</v>
       </c>
       <c r="AE3" t="n">
-        <v>373737.2202256077</v>
+        <v>469842.7926575148</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.45100276245778e-06</v>
+        <v>3.231099736270263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>338068.2644707579</v>
+        <v>425001.655954782</v>
       </c>
     </row>
   </sheetData>
@@ -6963,28 +6963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>693.2658628334597</v>
+        <v>800.1609357817862</v>
       </c>
       <c r="AB2" t="n">
-        <v>948.5569382600463</v>
+        <v>1094.815492945735</v>
       </c>
       <c r="AC2" t="n">
-        <v>858.027995380531</v>
+        <v>990.3278388821888</v>
       </c>
       <c r="AD2" t="n">
-        <v>693265.8628334596</v>
+        <v>800160.9357817862</v>
       </c>
       <c r="AE2" t="n">
-        <v>948556.9382600463</v>
+        <v>1094815.492945735</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.778797618988632e-07</v>
+        <v>1.659863159217629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>858027.9953805311</v>
+        <v>990327.8388821888</v>
       </c>
     </row>
     <row r="3">
@@ -7069,28 +7069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.2392748326854</v>
+        <v>600.2946357798078</v>
       </c>
       <c r="AB3" t="n">
-        <v>707.7095948124035</v>
+        <v>821.3496038041787</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.1667843601616</v>
+        <v>742.9611503885163</v>
       </c>
       <c r="AD3" t="n">
-        <v>517239.2748326854</v>
+        <v>600294.6357798078</v>
       </c>
       <c r="AE3" t="n">
-        <v>707709.5948124034</v>
+        <v>821349.6038041788</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.087311252825616e-06</v>
+        <v>2.055848613327445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.32942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>640166.7843601616</v>
+        <v>742961.1503885164</v>
       </c>
     </row>
     <row r="4">
@@ -7175,28 +7175,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.8100067072963</v>
+        <v>546.7800267998472</v>
       </c>
       <c r="AB4" t="n">
-        <v>634.6053130302946</v>
+        <v>748.1285548998723</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.0394726288334</v>
+        <v>676.7282156252493</v>
       </c>
       <c r="AD4" t="n">
-        <v>463810.0067072964</v>
+        <v>546780.0267998471</v>
       </c>
       <c r="AE4" t="n">
-        <v>634605.3130302946</v>
+        <v>748128.5548998723</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.168169229041509e-06</v>
+        <v>2.208731937074825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>574039.4726288335</v>
+        <v>676728.2156252493</v>
       </c>
     </row>
     <row r="5">
@@ -7281,28 +7281,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>431.529791175645</v>
+        <v>514.5850626142162</v>
       </c>
       <c r="AB5" t="n">
-        <v>590.4380980372879</v>
+        <v>704.077984559515</v>
       </c>
       <c r="AC5" t="n">
-        <v>534.0875146456835</v>
+        <v>636.8817698928118</v>
       </c>
       <c r="AD5" t="n">
-        <v>431529.791175645</v>
+        <v>514585.0626142162</v>
       </c>
       <c r="AE5" t="n">
-        <v>590438.0980372879</v>
+        <v>704077.984559515</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.206600099063032e-06</v>
+        <v>2.281395629865085e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.91015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>534087.5146456836</v>
+        <v>636881.7698928118</v>
       </c>
     </row>
     <row r="6">
@@ -7387,28 +7387,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>412.9267452549869</v>
+        <v>495.9820166935582</v>
       </c>
       <c r="AB6" t="n">
-        <v>564.9845899001804</v>
+        <v>678.6244764224074</v>
       </c>
       <c r="AC6" t="n">
-        <v>511.0632536009586</v>
+        <v>613.8575088480867</v>
       </c>
       <c r="AD6" t="n">
-        <v>412926.7452549869</v>
+        <v>495982.0166935582</v>
       </c>
       <c r="AE6" t="n">
-        <v>564984.5899001803</v>
+        <v>678624.4764224074</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.236177032653692e-06</v>
+        <v>2.337318621327577e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>511063.2536009586</v>
+        <v>613857.5088480867</v>
       </c>
     </row>
     <row r="7">
@@ -7493,28 +7493,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>398.2144533808945</v>
+        <v>469.3925840004251</v>
       </c>
       <c r="AB7" t="n">
-        <v>544.8545830975381</v>
+        <v>642.2436415686815</v>
       </c>
       <c r="AC7" t="n">
-        <v>492.8544263949185</v>
+        <v>580.9488098119779</v>
       </c>
       <c r="AD7" t="n">
-        <v>398214.4533808945</v>
+        <v>469392.5840004251</v>
       </c>
       <c r="AE7" t="n">
-        <v>544854.5830975381</v>
+        <v>642243.6415686815</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.254052412420864e-06</v>
+        <v>2.371116739954181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>492854.4263949185</v>
+        <v>580948.8098119779</v>
       </c>
     </row>
     <row r="8">
@@ -7599,28 +7599,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>386.9949443832293</v>
+        <v>458.1730750027598</v>
       </c>
       <c r="AB8" t="n">
-        <v>529.5035559171288</v>
+        <v>626.8926143882721</v>
       </c>
       <c r="AC8" t="n">
-        <v>478.9684797033055</v>
+        <v>567.0628631203649</v>
       </c>
       <c r="AD8" t="n">
-        <v>386994.9443832293</v>
+        <v>458173.0750027598</v>
       </c>
       <c r="AE8" t="n">
-        <v>529503.5559171288</v>
+        <v>626892.6143882722</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.267261528393392e-06</v>
+        <v>2.396092056529663e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>478968.4797033055</v>
+        <v>567062.863120365</v>
       </c>
     </row>
     <row r="9">
@@ -7705,28 +7705,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>387.7834744143378</v>
+        <v>458.9616050338684</v>
       </c>
       <c r="AB9" t="n">
-        <v>530.5824574931812</v>
+        <v>627.9715159643246</v>
       </c>
       <c r="AC9" t="n">
-        <v>479.9444124271874</v>
+        <v>568.0387958442469</v>
       </c>
       <c r="AD9" t="n">
-        <v>387783.4744143378</v>
+        <v>458961.6050338683</v>
       </c>
       <c r="AE9" t="n">
-        <v>530582.4574931812</v>
+        <v>627971.5159643246</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.266423993866149e-06</v>
+        <v>2.394508476674333e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>479944.4124271874</v>
+        <v>568038.7958442469</v>
       </c>
     </row>
   </sheetData>
@@ -8002,28 +8002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.1214679774595</v>
+        <v>327.6332500164793</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.5414241191243</v>
+        <v>448.2822668314154</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.7044882032083</v>
+        <v>405.4988364531374</v>
       </c>
       <c r="AD2" t="n">
-        <v>259121.4679774595</v>
+        <v>327633.2500164793</v>
       </c>
       <c r="AE2" t="n">
-        <v>354541.4241191243</v>
+        <v>448282.2668314154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.459327591091048e-06</v>
+        <v>3.34560591004327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>320704.4882032083</v>
+        <v>405498.8364531373</v>
       </c>
     </row>
     <row r="3">
@@ -8108,28 +8108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.8123002649119</v>
+        <v>329.3240823039316</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.8548954490724</v>
+        <v>450.5957381613636</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.7971650764036</v>
+        <v>407.5915133263328</v>
       </c>
       <c r="AD3" t="n">
-        <v>260812.3002649118</v>
+        <v>329324.0823039316</v>
       </c>
       <c r="AE3" t="n">
-        <v>356854.8954490725</v>
+        <v>450595.7381613636</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458812109780172e-06</v>
+        <v>3.344424134730644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.77994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>322797.1650764036</v>
+        <v>407591.5133263328</v>
       </c>
     </row>
   </sheetData>
@@ -8405,28 +8405,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.3345541393322</v>
+        <v>642.7214884301019</v>
       </c>
       <c r="AB2" t="n">
-        <v>739.3095748515709</v>
+        <v>879.3998953409495</v>
       </c>
       <c r="AC2" t="n">
-        <v>668.7509066552415</v>
+        <v>795.4712035751133</v>
       </c>
       <c r="AD2" t="n">
-        <v>540334.5541393323</v>
+        <v>642721.4884301019</v>
       </c>
       <c r="AE2" t="n">
-        <v>739309.5748515709</v>
+        <v>879399.8953409494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.018892419171969e-06</v>
+        <v>1.997015060550888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>668750.9066552415</v>
+        <v>795471.2035751133</v>
       </c>
     </row>
     <row r="3">
@@ -8511,28 +8511,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.3399597252109</v>
+        <v>506.9364021912177</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.7053858044861</v>
+        <v>693.6127499336854</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.9019244224683</v>
+        <v>627.4153225716225</v>
       </c>
       <c r="AD3" t="n">
-        <v>427339.9597252109</v>
+        <v>506936.4021912176</v>
       </c>
       <c r="AE3" t="n">
-        <v>584705.3858044861</v>
+        <v>693612.7499336854</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202220907436606e-06</v>
+        <v>2.356336363961936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.47005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>528901.9244224683</v>
+        <v>627415.3225716224</v>
       </c>
     </row>
     <row r="4">
@@ -8617,28 +8617,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.8929875541771</v>
+        <v>462.5746813662044</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.8910776180561</v>
+        <v>632.9150863999049</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.8916484559335</v>
+        <v>572.5105588558</v>
       </c>
       <c r="AD4" t="n">
-        <v>382892.9875541771</v>
+        <v>462574.6813662044</v>
       </c>
       <c r="AE4" t="n">
-        <v>523891.0776180561</v>
+        <v>632915.0863999049</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273646621890097e-06</v>
+        <v>2.496329777192106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>473891.6484559336</v>
+        <v>572510.5588558</v>
       </c>
     </row>
     <row r="5">
@@ -8723,28 +8723,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>363.5533632363796</v>
+        <v>431.839855890301</v>
       </c>
       <c r="AB5" t="n">
-        <v>497.4297504224369</v>
+        <v>590.8623422589702</v>
       </c>
       <c r="AC5" t="n">
-        <v>449.9557531891583</v>
+        <v>534.471269594279</v>
       </c>
       <c r="AD5" t="n">
-        <v>363553.3632363796</v>
+        <v>431839.855890301</v>
       </c>
       <c r="AE5" t="n">
-        <v>497429.7504224369</v>
+        <v>590862.3422589703</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.306759692575432e-06</v>
+        <v>2.561230938114905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>449955.7531891583</v>
+        <v>534471.269594279</v>
       </c>
     </row>
     <row r="6">
@@ -8829,28 +8829,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.5655084138617</v>
+        <v>420.8520010677832</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.3956827043251</v>
+        <v>575.8282745408584</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.3565157936166</v>
+        <v>520.8720321987374</v>
       </c>
       <c r="AD6" t="n">
-        <v>352565.5084138617</v>
+        <v>420852.0010677832</v>
       </c>
       <c r="AE6" t="n">
-        <v>482395.6827043251</v>
+        <v>575828.2745408583</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321960358382148e-06</v>
+        <v>2.591024033023868e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>436356.5157936165</v>
+        <v>520872.0321987374</v>
       </c>
     </row>
     <row r="7">
@@ -8935,28 +8935,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>353.822456500838</v>
+        <v>422.1089491547593</v>
       </c>
       <c r="AB7" t="n">
-        <v>484.1154945295619</v>
+        <v>577.5480863660953</v>
       </c>
       <c r="AC7" t="n">
-        <v>437.9121911920238</v>
+        <v>522.4277075971446</v>
       </c>
       <c r="AD7" t="n">
-        <v>353822.456500838</v>
+        <v>422108.9491547593</v>
       </c>
       <c r="AE7" t="n">
-        <v>484115.4945295619</v>
+        <v>577548.0863660952</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.321711574981057e-06</v>
+        <v>2.590536420995899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>437912.1911920238</v>
+        <v>522427.7075971446</v>
       </c>
     </row>
   </sheetData>
@@ -9232,28 +9232,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>614.8884908188761</v>
+        <v>719.6160453583456</v>
       </c>
       <c r="AB2" t="n">
-        <v>841.3175601040767</v>
+        <v>984.6104204786043</v>
       </c>
       <c r="AC2" t="n">
-        <v>761.0233929643546</v>
+        <v>890.6405838575298</v>
       </c>
       <c r="AD2" t="n">
-        <v>614888.4908188761</v>
+        <v>719616.0453583456</v>
       </c>
       <c r="AE2" t="n">
-        <v>841317.5601040768</v>
+        <v>984610.4204786043</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.442703917136106e-07</v>
+        <v>1.815551591669434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>761023.3929643546</v>
+        <v>890640.5838575298</v>
       </c>
     </row>
     <row r="3">
@@ -9338,28 +9338,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.6382280796847</v>
+        <v>557.6345644985781</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.7385220505444</v>
+        <v>762.9802122476824</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.0645297706594</v>
+        <v>690.1624516402164</v>
       </c>
       <c r="AD3" t="n">
-        <v>464638.2280796847</v>
+        <v>557634.5644985781</v>
       </c>
       <c r="AE3" t="n">
-        <v>635738.5220505444</v>
+        <v>762980.2122476824</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.145175873888828e-06</v>
+        <v>2.201833181285302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.86067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>575064.5297706594</v>
+        <v>690162.4516402164</v>
       </c>
     </row>
     <row r="4">
@@ -9444,28 +9444,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>430.2590590103783</v>
+        <v>500.1344121149568</v>
       </c>
       <c r="AB4" t="n">
-        <v>588.6994262280236</v>
+        <v>684.305967028722</v>
       </c>
       <c r="AC4" t="n">
-        <v>532.5147792336543</v>
+        <v>618.9967659649568</v>
       </c>
       <c r="AD4" t="n">
-        <v>430259.0590103783</v>
+        <v>500134.4121149568</v>
       </c>
       <c r="AE4" t="n">
-        <v>588699.4262280236</v>
+        <v>684305.9670287219</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21676764786949e-06</v>
+        <v>2.339482905709204e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.04036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>532514.7792336543</v>
+        <v>618996.7659649568</v>
       </c>
     </row>
     <row r="5">
@@ -9550,28 +9550,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>396.5918160843095</v>
+        <v>478.02761609177</v>
       </c>
       <c r="AB5" t="n">
-        <v>542.6344191626453</v>
+        <v>654.0584734267893</v>
       </c>
       <c r="AC5" t="n">
-        <v>490.8461517899522</v>
+        <v>591.6360506997686</v>
       </c>
       <c r="AD5" t="n">
-        <v>396591.8160843095</v>
+        <v>478027.6160917699</v>
       </c>
       <c r="AE5" t="n">
-        <v>542634.4191626452</v>
+        <v>654058.4734267893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257743395932647e-06</v>
+        <v>2.418267102766262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>490846.1517899522</v>
+        <v>591636.0506997686</v>
       </c>
     </row>
     <row r="6">
@@ -9656,28 +9656,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.3817804285212</v>
+        <v>450.1717926785282</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.4551332420943</v>
+        <v>615.9449069205951</v>
       </c>
       <c r="AC6" t="n">
-        <v>470.7836257888354</v>
+        <v>557.1599894881991</v>
       </c>
       <c r="AD6" t="n">
-        <v>380381.7804285212</v>
+        <v>450171.7926785282</v>
       </c>
       <c r="AE6" t="n">
-        <v>520455.1332420944</v>
+        <v>615944.9069205951</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.281972957845067e-06</v>
+        <v>2.464853356112316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.37630208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>470783.6257888353</v>
+        <v>557159.9894881991</v>
       </c>
     </row>
     <row r="7">
@@ -9762,28 +9762,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>369.9179240619463</v>
+        <v>439.7079363119532</v>
       </c>
       <c r="AB7" t="n">
-        <v>506.1380233285842</v>
+        <v>601.627797007085</v>
       </c>
       <c r="AC7" t="n">
-        <v>457.8329207512806</v>
+        <v>544.2092844506443</v>
       </c>
       <c r="AD7" t="n">
-        <v>369917.9240619463</v>
+        <v>439707.9363119532</v>
       </c>
       <c r="AE7" t="n">
-        <v>506138.0233285842</v>
+        <v>601627.7970070849</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.293405215930505e-06</v>
+        <v>2.486834193958693e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>457832.9207512806</v>
+        <v>544209.2844506443</v>
       </c>
     </row>
     <row r="8">
@@ -9868,28 +9868,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>371.0523649979319</v>
+        <v>440.8423772479388</v>
       </c>
       <c r="AB8" t="n">
-        <v>507.6902154652013</v>
+        <v>603.1799891437022</v>
       </c>
       <c r="AC8" t="n">
-        <v>459.2369738488945</v>
+        <v>545.6133375482583</v>
       </c>
       <c r="AD8" t="n">
-        <v>371052.3649979319</v>
+        <v>440842.3772479388</v>
       </c>
       <c r="AE8" t="n">
-        <v>507690.2154652014</v>
+        <v>603179.9891437022</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.293673349915451e-06</v>
+        <v>2.487349735997734e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>459236.9738488945</v>
+        <v>545613.3375482582</v>
       </c>
     </row>
   </sheetData>
@@ -10165,28 +10165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>777.4105366075979</v>
+        <v>898.2537501467217</v>
       </c>
       <c r="AB2" t="n">
-        <v>1063.687393118835</v>
+        <v>1229.030409109387</v>
       </c>
       <c r="AC2" t="n">
-        <v>962.1705612142056</v>
+        <v>1111.733471818999</v>
       </c>
       <c r="AD2" t="n">
-        <v>777410.536607598</v>
+        <v>898253.7501467217</v>
       </c>
       <c r="AE2" t="n">
-        <v>1063687.393118835</v>
+        <v>1229030.409109387</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.170839004287212e-07</v>
+        <v>1.522165333606559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>962170.5612142056</v>
+        <v>1111733.471818999</v>
       </c>
     </row>
     <row r="3">
@@ -10271,28 +10271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.5878288561313</v>
+        <v>654.245331516516</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.9162664798558</v>
+        <v>895.1673258478575</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.1046087667227</v>
+        <v>809.7338126441697</v>
       </c>
       <c r="AD3" t="n">
-        <v>557587.8288561313</v>
+        <v>654245.331516516</v>
       </c>
       <c r="AE3" t="n">
-        <v>762916.2664798559</v>
+        <v>895167.3258478574</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036436388441189e-06</v>
+        <v>1.930802381671923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.77864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>690104.6087667226</v>
+        <v>809733.8126441697</v>
       </c>
     </row>
     <row r="4">
@@ -10377,28 +10377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.7647503813696</v>
+        <v>582.4147384569565</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.0636913027306</v>
+        <v>796.885539481655</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.0639284836914</v>
+        <v>720.8319020294042</v>
       </c>
       <c r="AD4" t="n">
-        <v>497764.7503813696</v>
+        <v>582414.7384569565</v>
       </c>
       <c r="AE4" t="n">
-        <v>681063.6913027306</v>
+        <v>796885.539481655</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.122125733216626e-06</v>
+        <v>2.090435131758167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.65234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>616063.9284836914</v>
+        <v>720831.9020294042</v>
       </c>
     </row>
     <row r="5">
@@ -10483,28 +10483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.4180937681031</v>
+        <v>543.9753159128713</v>
       </c>
       <c r="AB5" t="n">
-        <v>645.0150333920028</v>
+        <v>744.2910257292004</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.4557038893544</v>
+        <v>673.2569348526204</v>
       </c>
       <c r="AD5" t="n">
-        <v>471418.093768103</v>
+        <v>543975.3159128714</v>
       </c>
       <c r="AE5" t="n">
-        <v>645015.0333920028</v>
+        <v>744291.0257292005</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.169652497754349e-06</v>
+        <v>2.178973889356798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>583455.7038893544</v>
+        <v>673256.9348526204</v>
       </c>
     </row>
     <row r="6">
@@ -10589,28 +10589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.5589655156859</v>
+        <v>529.1236127367011</v>
       </c>
       <c r="AB6" t="n">
-        <v>608.2651891759361</v>
+        <v>723.9702702326628</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.2132132265389</v>
+        <v>654.8755637403126</v>
       </c>
       <c r="AD6" t="n">
-        <v>444558.965515686</v>
+        <v>529123.6127367012</v>
       </c>
       <c r="AE6" t="n">
-        <v>608265.1891759362</v>
+        <v>723970.2702326628</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.193015902301853e-06</v>
+        <v>2.222498139998105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>550213.2132265388</v>
+        <v>654875.5637403126</v>
       </c>
     </row>
     <row r="7">
@@ -10695,28 +10695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>430.3828345702819</v>
+        <v>514.947481791297</v>
       </c>
       <c r="AB7" t="n">
-        <v>588.8687814096761</v>
+        <v>704.5738624664027</v>
       </c>
       <c r="AC7" t="n">
-        <v>532.6679713944613</v>
+        <v>637.3303219082351</v>
       </c>
       <c r="AD7" t="n">
-        <v>430382.8345702819</v>
+        <v>514947.4817912971</v>
       </c>
       <c r="AE7" t="n">
-        <v>588868.7814096761</v>
+        <v>704573.8624664027</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.215038205077747e-06</v>
+        <v>2.263524019756679e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>532667.9713944613</v>
+        <v>637330.3219082351</v>
       </c>
     </row>
     <row r="8">
@@ -10801,28 +10801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>417.4371511712045</v>
+        <v>489.9090324614012</v>
       </c>
       <c r="AB8" t="n">
-        <v>571.1559262598148</v>
+        <v>670.3151514748149</v>
       </c>
       <c r="AC8" t="n">
-        <v>516.6456062799544</v>
+        <v>606.3412142112816</v>
       </c>
       <c r="AD8" t="n">
-        <v>417437.1511712045</v>
+        <v>489909.0324614012</v>
       </c>
       <c r="AE8" t="n">
-        <v>571155.9262598148</v>
+        <v>670315.1514748149</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.230425583299366e-06</v>
+        <v>2.292189538305938e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>516645.6062799544</v>
+        <v>606341.2142112816</v>
       </c>
     </row>
     <row r="9">
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>405.882023368056</v>
+        <v>478.3539046582527</v>
       </c>
       <c r="AB9" t="n">
-        <v>555.3456906232864</v>
+        <v>654.5049158382866</v>
       </c>
       <c r="AC9" t="n">
-        <v>502.3442773427713</v>
+        <v>592.0398852740985</v>
       </c>
       <c r="AD9" t="n">
-        <v>405882.023368056</v>
+        <v>478353.9046582527</v>
       </c>
       <c r="AE9" t="n">
-        <v>555345.6906232864</v>
+        <v>654504.9158382866</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.240683835447112e-06</v>
+        <v>2.311299884005445e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH9" t="n">
-        <v>502344.2773427713</v>
+        <v>592039.8852740985</v>
       </c>
     </row>
     <row r="10">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>402.0856016857674</v>
+        <v>474.557482975964</v>
       </c>
       <c r="AB10" t="n">
-        <v>550.151258991275</v>
+        <v>649.3104842062753</v>
       </c>
       <c r="AC10" t="n">
-        <v>497.6455949752885</v>
+        <v>587.3412029066158</v>
       </c>
       <c r="AD10" t="n">
-        <v>402085.6016857674</v>
+        <v>474557.482975964</v>
       </c>
       <c r="AE10" t="n">
-        <v>550151.258991275</v>
+        <v>649310.4842062753</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.243318982787818e-06</v>
+        <v>2.316208963634676e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>497645.5949752885</v>
+        <v>587341.2029066158</v>
       </c>
     </row>
     <row r="11">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>403.3135291829672</v>
+        <v>475.7854104731638</v>
       </c>
       <c r="AB11" t="n">
-        <v>551.8313635652815</v>
+        <v>650.9905887802819</v>
       </c>
       <c r="AC11" t="n">
-        <v>499.1653527267936</v>
+        <v>588.8609606581207</v>
       </c>
       <c r="AD11" t="n">
-        <v>403313.5291829671</v>
+        <v>475785.4104731638</v>
       </c>
       <c r="AE11" t="n">
-        <v>551831.3635652815</v>
+        <v>650990.5887802818</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.243201342281536e-06</v>
+        <v>2.315989808294085e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.32421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>499165.3527267936</v>
+        <v>588860.9606581207</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.43640195937</v>
+        <v>561.2798758916844</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.4590128696311</v>
+        <v>767.9678881155191</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.3302930449081</v>
+        <v>694.6741107234739</v>
       </c>
       <c r="AD2" t="n">
-        <v>483436.40195937</v>
+        <v>561279.8758916843</v>
       </c>
       <c r="AE2" t="n">
-        <v>661459.0128696312</v>
+        <v>767967.8881155192</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097440868714013e-06</v>
+        <v>2.199817318567028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>598330.2930449081</v>
+        <v>694674.1107234738</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.939749546469</v>
+        <v>453.6627399896744</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.4280359064491</v>
+        <v>620.7213750414313</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.9001672164521</v>
+        <v>561.4805981953978</v>
       </c>
       <c r="AD3" t="n">
-        <v>386939.7495464691</v>
+        <v>453662.7399896744</v>
       </c>
       <c r="AE3" t="n">
-        <v>529428.0359064491</v>
+        <v>620721.3750414313</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.270883106436784e-06</v>
+        <v>2.547481825321423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.04036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>478900.1672164521</v>
+        <v>561480.5981953978</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.4200057250743</v>
+        <v>415.057655313708</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.723623038855</v>
+        <v>567.9001950516396</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.2257895418331</v>
+        <v>513.70059748884</v>
       </c>
       <c r="AD4" t="n">
-        <v>348420.0057250743</v>
+        <v>415057.655313708</v>
       </c>
       <c r="AE4" t="n">
-        <v>476723.623038855</v>
+        <v>567900.1950516396</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329605038110755e-06</v>
+        <v>2.665189782040295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>431225.7895418331</v>
+        <v>513700.59748884</v>
       </c>
     </row>
     <row r="5">
@@ -11734,28 +11734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.6383051299661</v>
+        <v>401.2759547185998</v>
       </c>
       <c r="AB5" t="n">
-        <v>457.8668922789085</v>
+        <v>549.0434642916932</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.1687187000281</v>
+        <v>496.6435266470351</v>
       </c>
       <c r="AD5" t="n">
-        <v>334638.3051299661</v>
+        <v>401275.9547185998</v>
       </c>
       <c r="AE5" t="n">
-        <v>457866.8922789085</v>
+        <v>549043.4642916932</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350909874179724e-06</v>
+        <v>2.707895269588493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>414168.7187000281</v>
+        <v>496643.526647035</v>
       </c>
     </row>
   </sheetData>
@@ -12031,28 +12031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.4884149655358</v>
+        <v>462.479725311369</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.4963029693623</v>
+        <v>632.7851633365134</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.2026207210797</v>
+        <v>572.3930354672306</v>
       </c>
       <c r="AD2" t="n">
-        <v>377488.4149655357</v>
+        <v>462479.7253113689</v>
       </c>
       <c r="AE2" t="n">
-        <v>516496.3029693624</v>
+        <v>632785.1633365134</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.239867719300509e-06</v>
+        <v>2.593880807521106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.91927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>467202.6207210796</v>
+        <v>572393.0354672306</v>
       </c>
     </row>
     <row r="3">
@@ -12137,28 +12137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.7957151197556</v>
+        <v>376.5819578149674</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.9808969998768</v>
+        <v>515.2560483058874</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.1350008651693</v>
+        <v>466.0807342219784</v>
       </c>
       <c r="AD3" t="n">
-        <v>312795.7151197557</v>
+        <v>376581.9578149674</v>
       </c>
       <c r="AE3" t="n">
-        <v>427980.8969998768</v>
+        <v>515256.0483058874</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.388375034979953e-06</v>
+        <v>2.904567399260675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.43489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>387135.0008651693</v>
+        <v>466080.7342219785</v>
       </c>
     </row>
     <row r="4">
@@ -12243,28 +12243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.3078175135203</v>
+        <v>369.0940602087319</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.7356251522975</v>
+        <v>505.0107764583081</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.8675233833936</v>
+        <v>456.8132567402028</v>
       </c>
       <c r="AD4" t="n">
-        <v>305307.8175135202</v>
+        <v>369094.0602087319</v>
       </c>
       <c r="AE4" t="n">
-        <v>417735.6251522975</v>
+        <v>505010.7764583081</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404151120112834e-06</v>
+        <v>2.937571955962165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>377867.5233833937</v>
+        <v>456813.2567402028</v>
       </c>
     </row>
   </sheetData>
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.1572741301072</v>
+        <v>382.7496748560223</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.4215509237888</v>
+        <v>523.6949908619308</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.4837748356418</v>
+        <v>473.7142759446032</v>
       </c>
       <c r="AD2" t="n">
-        <v>321157.2741301073</v>
+        <v>382749.6748560223</v>
       </c>
       <c r="AE2" t="n">
-        <v>439421.5509237888</v>
+        <v>523694.9908619308</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.354941018451857e-06</v>
+        <v>2.945446350777249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>397483.7748356418</v>
+        <v>473714.2759446033</v>
       </c>
     </row>
     <row r="3">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.8163376386862</v>
+        <v>346.3233975100296</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.6982783672601</v>
+        <v>473.8549511832044</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.5060216248569</v>
+        <v>428.6308997018795</v>
       </c>
       <c r="AD3" t="n">
-        <v>284816.3376386862</v>
+        <v>346323.3975100296</v>
       </c>
       <c r="AE3" t="n">
-        <v>389698.2783672601</v>
+        <v>473854.9511832044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.433384972151701e-06</v>
+        <v>3.115972192138037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>352506.0216248569</v>
+        <v>428630.8997018795</v>
       </c>
     </row>
   </sheetData>
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.9024846481614</v>
+        <v>310.976838202959</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.4005808825199</v>
+        <v>425.4922293591295</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.2451570229734</v>
+        <v>384.883848171188</v>
       </c>
       <c r="AD2" t="n">
-        <v>253902.4846481614</v>
+        <v>310976.838202959</v>
       </c>
       <c r="AE2" t="n">
-        <v>347400.5808825199</v>
+        <v>425492.2293591294</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.454912688261797e-06</v>
+        <v>3.460549058602514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>314245.1570229734</v>
+        <v>384883.848171188</v>
       </c>
     </row>
   </sheetData>
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.9086186187862</v>
+        <v>675.0094176819941</v>
       </c>
       <c r="AB2" t="n">
-        <v>797.5612881075253</v>
+        <v>923.5776645862949</v>
       </c>
       <c r="AC2" t="n">
-        <v>721.4431581548407</v>
+        <v>835.4327085275717</v>
       </c>
       <c r="AD2" t="n">
-        <v>582908.6186187862</v>
+        <v>675009.4176819941</v>
       </c>
       <c r="AE2" t="n">
-        <v>797561.2881075253</v>
+        <v>923577.6645862949</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.806056656024565e-07</v>
+        <v>1.902941972550184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.34765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>721443.1581548407</v>
+        <v>835432.7085275716</v>
       </c>
     </row>
     <row r="3">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.9602085004293</v>
+        <v>526.6230026085043</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.1824316461395</v>
+        <v>720.548825136131</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.9474767662526</v>
+        <v>651.7806565617656</v>
       </c>
       <c r="AD3" t="n">
-        <v>445960.2085004293</v>
+        <v>526623.0026085043</v>
       </c>
       <c r="AE3" t="n">
-        <v>610182.4316461396</v>
+        <v>720548.825136131</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.172782809678497e-06</v>
+        <v>2.275876747919287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.66536458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>551947.4767662527</v>
+        <v>651780.6565617656</v>
       </c>
     </row>
     <row r="4">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.2342647057487</v>
+        <v>480.8117179592521</v>
       </c>
       <c r="AB4" t="n">
-        <v>547.6181780599903</v>
+        <v>657.8678044277841</v>
       </c>
       <c r="AC4" t="n">
-        <v>495.3542677328841</v>
+        <v>595.0818244964581</v>
       </c>
       <c r="AD4" t="n">
-        <v>400234.2647057487</v>
+        <v>480811.7179592521</v>
       </c>
       <c r="AE4" t="n">
-        <v>547618.1780599903</v>
+        <v>657867.8044277841</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.246763378208923e-06</v>
+        <v>2.419441826062273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.85807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>495354.2677328842</v>
+        <v>595081.8244964582</v>
       </c>
     </row>
     <row r="5">
@@ -22907,28 +22907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.6897641856385</v>
+        <v>449.9146428471315</v>
       </c>
       <c r="AB5" t="n">
-        <v>520.8765302058665</v>
+        <v>615.5930631766283</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.1648052178195</v>
+        <v>556.8417252173406</v>
       </c>
       <c r="AD5" t="n">
-        <v>380689.7641856385</v>
+        <v>449914.6428471315</v>
       </c>
       <c r="AE5" t="n">
-        <v>520876.5302058666</v>
+        <v>615593.0631766283</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279605334421764e-06</v>
+        <v>2.483174210169676e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>471164.8052178195</v>
+        <v>556841.7252173406</v>
       </c>
     </row>
     <row r="6">
@@ -23013,28 +23013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>363.7657237848276</v>
+        <v>432.8200102457286</v>
       </c>
       <c r="AB6" t="n">
-        <v>497.7203114935097</v>
+        <v>592.2034326894244</v>
       </c>
       <c r="AC6" t="n">
-        <v>450.2185835194128</v>
+        <v>535.6843682362829</v>
       </c>
       <c r="AD6" t="n">
-        <v>363765.7237848276</v>
+        <v>432820.0102457285</v>
       </c>
       <c r="AE6" t="n">
-        <v>497720.3114935097</v>
+        <v>592203.4326894244</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30291967665082e-06</v>
+        <v>2.528417514329878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>450218.5835194128</v>
+        <v>535684.368236283</v>
       </c>
     </row>
     <row r="7">
@@ -23119,28 +23119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.0073772362943</v>
+        <v>430.0616636971952</v>
       </c>
       <c r="AB7" t="n">
-        <v>493.946220056145</v>
+        <v>588.4293412520599</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.8046860718597</v>
+        <v>532.2704707887299</v>
       </c>
       <c r="AD7" t="n">
-        <v>361007.3772362943</v>
+        <v>430061.6636971952</v>
       </c>
       <c r="AE7" t="n">
-        <v>493946.220056145</v>
+        <v>588429.3412520599</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308508225421671e-06</v>
+        <v>2.539262530216221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.24609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>446804.6860718597</v>
+        <v>532270.4707887298</v>
       </c>
     </row>
   </sheetData>
@@ -23416,28 +23416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.600635430781</v>
+        <v>847.3968604218808</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.9542182736</v>
+        <v>1159.445768940233</v>
       </c>
       <c r="AC2" t="n">
-        <v>915.3747279682325</v>
+        <v>1048.789892044934</v>
       </c>
       <c r="AD2" t="n">
-        <v>739600.6354307811</v>
+        <v>847396.8604218807</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011954.2182736</v>
+        <v>1159445.768940233</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.477938478749091e-07</v>
+        <v>1.590793788153594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.21614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>915374.7279682325</v>
+        <v>1048789.892044934</v>
       </c>
     </row>
     <row r="3">
@@ -23522,28 +23522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.222955061808</v>
+        <v>633.0322598402321</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.0521477196392</v>
+        <v>866.1426653256926</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.8998023934448</v>
+        <v>783.4792249858735</v>
       </c>
       <c r="AD3" t="n">
-        <v>537222.955061808</v>
+        <v>633032.2598402321</v>
       </c>
       <c r="AE3" t="n">
-        <v>735052.1477196391</v>
+        <v>866142.6653256926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.061735109351737e-06</v>
+        <v>1.992231508703434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>664899.8023934448</v>
+        <v>783479.2249858736</v>
       </c>
     </row>
     <row r="4">
@@ -23628,28 +23628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.6050329005674</v>
+        <v>564.3422556288465</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.5850088121904</v>
+        <v>772.157971174563</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.8260184975106</v>
+        <v>698.4642981361812</v>
       </c>
       <c r="AD4" t="n">
-        <v>480605.0329005674</v>
+        <v>564342.2556288465</v>
       </c>
       <c r="AE4" t="n">
-        <v>657585.0088121904</v>
+        <v>772157.971174563</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.145219174458963e-06</v>
+        <v>2.148880359736357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>594826.0184975106</v>
+        <v>698464.2981361812</v>
       </c>
     </row>
     <row r="5">
@@ -23734,28 +23734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>440.1784720580384</v>
+        <v>524.0009461323382</v>
       </c>
       <c r="AB5" t="n">
-        <v>602.2716047734507</v>
+        <v>716.9612117884728</v>
       </c>
       <c r="AC5" t="n">
-        <v>544.791648107378</v>
+        <v>648.5354399967608</v>
       </c>
       <c r="AD5" t="n">
-        <v>440178.4720580385</v>
+        <v>524000.9461323381</v>
       </c>
       <c r="AE5" t="n">
-        <v>602271.6047734506</v>
+        <v>716961.2117884728</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.196937066454914e-06</v>
+        <v>2.245923410390454e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>544791.648107378</v>
+        <v>648535.4399967608</v>
       </c>
     </row>
     <row r="6">
@@ -23840,28 +23840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>428.3572617109862</v>
+        <v>512.1797357852859</v>
       </c>
       <c r="AB6" t="n">
-        <v>586.0973032616198</v>
+        <v>700.7869102766421</v>
       </c>
       <c r="AC6" t="n">
-        <v>530.1609992310615</v>
+        <v>633.9047911204444</v>
       </c>
       <c r="AD6" t="n">
-        <v>428357.2617109861</v>
+        <v>512179.7357852858</v>
       </c>
       <c r="AE6" t="n">
-        <v>586097.3032616198</v>
+        <v>700786.9102766421</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.216485480677236e-06</v>
+        <v>2.282603902931269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>530160.9992310615</v>
+        <v>633904.7911204444</v>
       </c>
     </row>
     <row r="7">
@@ -23946,28 +23946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>414.4873346016053</v>
+        <v>486.4936596809237</v>
       </c>
       <c r="AB7" t="n">
-        <v>567.1198570925666</v>
+        <v>665.6420877609527</v>
       </c>
       <c r="AC7" t="n">
-        <v>512.9947338893697</v>
+        <v>602.1141411395843</v>
       </c>
       <c r="AD7" t="n">
-        <v>414487.3346016053</v>
+        <v>486493.6596809237</v>
       </c>
       <c r="AE7" t="n">
-        <v>567119.8570925666</v>
+        <v>665642.0877609527</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.234302057231805e-06</v>
+        <v>2.316034788729997e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>512994.7338893698</v>
+        <v>602114.1411395842</v>
       </c>
     </row>
     <row r="8">
@@ -24052,28 +24052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>402.1005910716365</v>
+        <v>473.9363239503626</v>
       </c>
       <c r="AB8" t="n">
-        <v>550.1717681303062</v>
+        <v>648.4605870238453</v>
       </c>
       <c r="AC8" t="n">
-        <v>497.6641467508753</v>
+        <v>586.5724187184388</v>
       </c>
       <c r="AD8" t="n">
-        <v>402100.5910716365</v>
+        <v>473936.3239503626</v>
       </c>
       <c r="AE8" t="n">
-        <v>550171.7681303062</v>
+        <v>648460.5870238453</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.246353749495081e-06</v>
+        <v>2.338648490442053e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.38932291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>497664.1467508753</v>
+        <v>586572.4187184388</v>
       </c>
     </row>
     <row r="9">
@@ -24158,28 +24158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>394.3268099001363</v>
+        <v>466.1625427788626</v>
       </c>
       <c r="AB9" t="n">
-        <v>539.535337776439</v>
+        <v>637.824156669978</v>
       </c>
       <c r="AC9" t="n">
-        <v>488.0428423816574</v>
+        <v>576.9511143492208</v>
       </c>
       <c r="AD9" t="n">
-        <v>394326.8099001363</v>
+        <v>466162.5427788626</v>
       </c>
       <c r="AE9" t="n">
-        <v>539535.3377764389</v>
+        <v>637824.1566699781</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.255392518692539e-06</v>
+        <v>2.355608766726095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>488042.8423816573</v>
+        <v>576951.1143492208</v>
       </c>
     </row>
   </sheetData>
@@ -24455,28 +24455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.3375071173425</v>
+        <v>308.3736065139587</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.313356647833</v>
+        <v>421.9303729157625</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.4069591012063</v>
+        <v>381.661930307679</v>
       </c>
       <c r="AD2" t="n">
-        <v>244337.5071173425</v>
+        <v>308373.6065139587</v>
       </c>
       <c r="AE2" t="n">
-        <v>334313.356647833</v>
+        <v>421930.3729157625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410145382646136e-06</v>
+        <v>3.526666586725317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>302406.9591012063</v>
+        <v>381661.930307679</v>
       </c>
     </row>
   </sheetData>
@@ -24752,28 +24752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>416.0205567134246</v>
+        <v>491.6329341878044</v>
       </c>
       <c r="AB2" t="n">
-        <v>569.2176792269435</v>
+        <v>672.6738698700564</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.8923428235536</v>
+        <v>608.4748198333634</v>
       </c>
       <c r="AD2" t="n">
-        <v>416020.5567134246</v>
+        <v>491632.9341878045</v>
       </c>
       <c r="AE2" t="n">
-        <v>569217.6792269434</v>
+        <v>672673.8698700564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.189187932558326e-06</v>
+        <v>2.448875038112291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.30338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>514892.3428235536</v>
+        <v>608474.8198333634</v>
       </c>
     </row>
     <row r="3">
@@ -24858,28 +24858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.0687157529183</v>
+        <v>410.6810037187471</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.4557990816083</v>
+        <v>561.9118672551729</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.7014210640141</v>
+        <v>508.2837872925973</v>
       </c>
       <c r="AD3" t="n">
-        <v>335068.7157529183</v>
+        <v>410681.0037187471</v>
       </c>
       <c r="AE3" t="n">
-        <v>458455.7990816083</v>
+        <v>561911.8672551728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.344884441107675e-06</v>
+        <v>2.769498282654874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.64973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>414701.4210640141</v>
+        <v>508283.7872925972</v>
       </c>
     </row>
     <row r="4">
@@ -24964,28 +24964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.630076977507</v>
+        <v>380.428507477544</v>
       </c>
       <c r="AB4" t="n">
-        <v>431.8589959368722</v>
+        <v>520.5190672520191</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.642979482564</v>
+        <v>470.8414580265849</v>
       </c>
       <c r="AD4" t="n">
-        <v>315630.076977507</v>
+        <v>380428.507477544</v>
       </c>
       <c r="AE4" t="n">
-        <v>431858.9959368723</v>
+        <v>520519.0672520191</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386035976762185e-06</v>
+        <v>2.854240959304408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>390642.979482564</v>
+        <v>470841.4580265849</v>
       </c>
     </row>
     <row r="5">
@@ -25070,28 +25070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>316.9254996428646</v>
+        <v>381.7239301429016</v>
       </c>
       <c r="AB5" t="n">
-        <v>433.6314503776292</v>
+        <v>522.291521692776</v>
       </c>
       <c r="AC5" t="n">
-        <v>392.2462733591505</v>
+        <v>472.4447519031714</v>
       </c>
       <c r="AD5" t="n">
-        <v>316925.4996428646</v>
+        <v>381723.9301429016</v>
       </c>
       <c r="AE5" t="n">
-        <v>433631.4503776291</v>
+        <v>522291.521692776</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385931464925602e-06</v>
+        <v>2.854025739808155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>392246.2733591505</v>
+        <v>472444.7519031714</v>
       </c>
     </row>
   </sheetData>
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.4132679668858</v>
+        <v>602.5037265970742</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.1064393102198</v>
+        <v>824.3721793185715</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.1938247515194</v>
+        <v>745.6952555380266</v>
       </c>
       <c r="AD2" t="n">
-        <v>512413.2679668858</v>
+        <v>602503.7265970742</v>
       </c>
       <c r="AE2" t="n">
-        <v>701106.4393102198</v>
+        <v>824372.1793185715</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055605461506195e-06</v>
+        <v>2.091348768647253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.51432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>634193.8247515194</v>
+        <v>745695.2555380266</v>
       </c>
     </row>
     <row r="3">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.3198891510033</v>
+        <v>485.978448251826</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.3130420216763</v>
+        <v>664.9371527541371</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.1238674848939</v>
+        <v>601.4764841404366</v>
       </c>
       <c r="AD3" t="n">
-        <v>407319.8891510033</v>
+        <v>485978.448251826</v>
       </c>
       <c r="AE3" t="n">
-        <v>557313.0420216763</v>
+        <v>664937.1527541371</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.235744886948748e-06</v>
+        <v>2.448238136239726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>504123.8674848939</v>
+        <v>601476.4841404366</v>
       </c>
     </row>
     <row r="4">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.5355780117084</v>
+        <v>429.0181706383293</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.6689276596403</v>
+        <v>587.0015880132548</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.4584194760038</v>
+        <v>530.9789803151721</v>
       </c>
       <c r="AD4" t="n">
-        <v>361535.5780117085</v>
+        <v>429018.1706383292</v>
       </c>
       <c r="AE4" t="n">
-        <v>494668.9276596403</v>
+        <v>587001.5880132548</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.311916117257372e-06</v>
+        <v>2.599147367502121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.48046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>447458.4194760039</v>
+        <v>530978.9803151721</v>
       </c>
     </row>
     <row r="5">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.686460540597</v>
+        <v>413.1690531672178</v>
       </c>
       <c r="AB5" t="n">
-        <v>472.9834659219509</v>
+        <v>565.3161262755652</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.8425877708228</v>
+        <v>511.363148609991</v>
       </c>
       <c r="AD5" t="n">
-        <v>345686.460540597</v>
+        <v>413169.0531672178</v>
       </c>
       <c r="AE5" t="n">
-        <v>472983.4659219509</v>
+        <v>565316.1262755652</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.334103377869064e-06</v>
+        <v>2.643104415709992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>427842.5877708228</v>
+        <v>511363.148609991</v>
       </c>
     </row>
     <row r="6">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.4553778592934</v>
+        <v>411.9379704859141</v>
       </c>
       <c r="AB6" t="n">
-        <v>471.2990442858564</v>
+        <v>563.6317046394707</v>
       </c>
       <c r="AC6" t="n">
-        <v>426.3189249715766</v>
+        <v>509.8394858107447</v>
       </c>
       <c r="AD6" t="n">
-        <v>344455.3778592934</v>
+        <v>411937.9704859141</v>
       </c>
       <c r="AE6" t="n">
-        <v>471299.0442858564</v>
+        <v>563631.7046394708</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.334782579724524e-06</v>
+        <v>2.644450039634722e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>426318.9249715766</v>
+        <v>509839.4858107448</v>
       </c>
     </row>
   </sheetData>
